--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -833,7 +833,7 @@
     <t>The anatomical location where this condition manifests itself.</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>

--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -1133,7 +1133,7 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t>Evidence manifestation/symptom</t>
+    <t xml:space="preserve">Evidence manifestation/symptom </t>
   </si>
   <si>
     <t>A manifestation or symptom that led to the recording of this condition.</t>

--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -1133,7 +1133,7 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Evidence manifestation/symptom </t>
+    <t>Evidence manifestation/symptom</t>
   </si>
   <si>
     <t>A manifestation or symptom that led to the recording of this condition.</t>

--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>Condition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>Condition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -277,7 +277,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -329,7 +329,7 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -352,7 +352,7 @@
     <t>recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/recorder]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>Condition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -462,7 +462,7 @@
 This element is labeled as a modifier because the status contains the code refuted and entered-in-error that mark the Condition as not currently valid.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="unknown"/&gt;</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -491,7 +491,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -604,7 +604,7 @@
     <t>Condition.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>Condition.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -697,7 +697,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://snomed.info/sct"/&gt;</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -775,7 +775,7 @@
     <t>Condition.code.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -873,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -902,7 +902,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -927,8 +927,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
+    <t>dateTime
+AgePeriodRange</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -952,8 +952,8 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}boolean {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
+    <t>dateTime
+AgebooleanPeriodRange</t>
   </si>
   <si>
     <t>If/when in resolution/remission</t>
@@ -978,7 +978,7 @@
     <t>Condition.assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>Condition.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1089,7 +1089,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClinicalImpression], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
 </t>
   </si>
   <si>
@@ -1182,7 +1182,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1195,7 +1195,7 @@
     <t>Condition.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1261,67 +1261,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1357,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1380,7 +1380,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="54.8828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>Condition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>Condition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -277,7 +277,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -329,7 +329,7 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -352,7 +352,7 @@
     <t>recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/recorder]]} {[]}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>Condition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -462,7 +462,7 @@
 This element is labeled as a modifier because the status contains the code refuted and entered-in-error that mark the Condition as not currently valid.</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="unknown"/&gt;</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -491,7 +491,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -604,7 +604,7 @@
     <t>Condition.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>Condition.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -697,7 +697,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://snomed.info/sct"/&gt;</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -775,7 +775,7 @@
     <t>Condition.code.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -873,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
 </t>
   </si>
   <si>
@@ -902,7 +902,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
 </t>
   </si>
   <si>
@@ -927,8 +927,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime
-AgePeriodRange</t>
+    <t>dateTime {[]} {[]}
+Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -952,8 +952,8 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>dateTime
-AgebooleanPeriodRange</t>
+    <t>dateTime {[]} {[]}
+Age {[]} {[]}boolean {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
   </si>
   <si>
     <t>If/when in resolution/remission</t>
@@ -978,7 +978,7 @@
     <t>Condition.assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>Condition.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1089,7 +1089,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClinicalImpression], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
 </t>
   </si>
   <si>
@@ -1182,7 +1182,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -1195,7 +1195,7 @@
     <t>Condition.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {[]} {[]}
 </t>
   </si>
   <si>
@@ -1261,67 +1261,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1357,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1380,7 +1380,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="54.8828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>Condition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>Condition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -277,7 +277,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -329,7 +329,7 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -352,7 +352,7 @@
     <t>recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/recorder]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>Condition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -462,7 +462,7 @@
 This element is labeled as a modifier because the status contains the code refuted and entered-in-error that mark the Condition as not currently valid.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="unknown"/&gt;</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -491,7 +491,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -571,10 +571,10 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>Preferred SNOMED-CT Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-condition-1</t>
   </si>
   <si>
     <t>code 246090004 |Associated finding| (&lt; 404684003 |Clinical finding| MINUS
@@ -601,10 +601,37 @@
     <t>246090004</t>
   </si>
   <si>
-    <t>Condition.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Condition.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical location, if relevant</t>
+  </si>
+  <si>
+    <t>The anatomical location where this condition manifests itself.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
+  </si>
+  <si>
+    <t>.targetBodySiteCode</t>
+  </si>
+  <si>
+    <t>363698007</t>
+  </si>
+  <si>
+    <t>Condition.bodySite.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -620,7 +647,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Condition.code.extension</t>
+    <t>Condition.bodySite.extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -635,10 +662,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Condition.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t>Condition.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -654,8 +681,7 @@
     <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -667,140 +693,7 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>snomedCondition</t>
-  </si>
-  <si>
-    <t>Clinical Condition (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-condition-1</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.id</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://snomed.info/sct"/&gt;</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Condition.code.text</t>
+    <t>Condition.bodySite.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -822,48 +715,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Condition.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical location, if relevant</t>
-  </si>
-  <si>
-    <t>The anatomical location where this condition manifests itself.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
-  </si>
-  <si>
-    <t>.targetBodySiteCode</t>
-  </si>
-  <si>
-    <t>363698007</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.id</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.text</t>
   </si>
   <si>
     <t>Condition.subject</t>
@@ -873,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -902,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -927,8 +778,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
+    <t>dateTime
+AgePeriodRange</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -952,8 +803,8 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}boolean {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
+    <t>dateTime
+AgebooleanPeriodRange</t>
   </si>
   <si>
     <t>If/when in resolution/remission</t>
@@ -978,7 +829,7 @@
     <t>Condition.assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -1003,7 +854,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1025,7 +876,7 @@
     <t>Condition.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1089,7 +940,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClinicalImpression], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
 </t>
   </si>
   <si>
@@ -1139,10 +990,10 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>Codes that describe the manifestation or symptoms of a condition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+    <t>Preferred SNOMED-CT Codes that describe the manifestation or symptoms of a condition.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1155,34 +1006,10 @@
     <t>why</t>
   </si>
   <si>
-    <t>Condition.evidence.code.id</t>
-  </si>
-  <si>
-    <t>Condition.evidence.code.extension</t>
-  </si>
-  <si>
-    <t>Condition.evidence.code.coding</t>
-  </si>
-  <si>
-    <t>Evidence code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>Condition.evidence.code.text</t>
-  </si>
-  <si>
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1195,7 +1022,7 @@
     <t>Condition.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1261,67 +1088,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1357,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1367,7 +1194,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1380,7 +1207,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="54.8828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3292,7 +3119,7 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>173</v>
@@ -3359,7 +3186,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
@@ -3368,18 +3195,20 @@
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3404,13 +3233,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3428,13 +3257,13 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
@@ -3443,35 +3272,35 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -3483,17 +3312,15 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3530,25 +3357,25 @@
         <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -3563,7 +3390,7 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3574,11 +3401,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3594,23 +3421,21 @@
         <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3646,9 +3471,11 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3656,7 +3483,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3674,10 +3501,10 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3688,11 +3515,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3713,19 +3538,19 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3754,7 +3579,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3772,7 +3597,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3790,10 +3615,10 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3804,7 +3629,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3824,19 +3649,23 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
@@ -3884,7 +3713,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3902,10 +3731,10 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -3914,43 +3743,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3986,25 +3815,25 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
@@ -4016,13 +3845,13 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4030,15 +3859,15 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>52</v>
@@ -4053,26 +3882,24 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>41</v>
@@ -4114,7 +3941,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4132,21 +3959,21 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4160,7 +3987,7 @@
         <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4169,16 +3996,16 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4228,7 +4055,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4246,21 +4073,21 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4274,27 +4101,27 @@
         <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4342,7 +4169,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4351,7 +4178,7 @@
         <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
@@ -4360,13 +4187,13 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4374,7 +4201,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4397,18 +4224,18 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4456,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4474,13 +4301,13 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4488,7 +4315,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4511,20 +4338,16 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4572,7 +4395,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4590,13 +4413,13 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4604,7 +4427,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4624,23 +4447,19 @@
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4688,7 +4507,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4700,16 +4519,16 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4720,7 +4539,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4731,7 +4550,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
@@ -4740,20 +4559,18 @@
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4778,13 +4595,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4802,13 +4619,13 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
@@ -4817,35 +4634,35 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4857,15 +4674,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4914,13 +4733,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4935,7 +4754,7 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4946,11 +4765,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4963,19 +4782,19 @@
         <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>113</v>
@@ -5016,19 +4835,19 @@
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5049,7 +4868,7 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5060,7 +4879,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5080,23 +4899,19 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5120,11 +4935,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5142,28 +4959,28 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5174,7 +4991,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5185,7 +5002,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -5194,23 +5011,19 @@
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5258,16 +5071,16 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
@@ -5276,10 +5089,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5288,43 +5101,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5372,31 +5185,31 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5404,11 +5217,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5424,20 +5237,18 @@
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5486,7 +5297,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5504,53 +5315,53 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5600,13 +5411,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5618,53 +5429,53 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5714,16 +5525,16 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
@@ -5735,10 +5546,10 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5757,7 +5568,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5769,17 +5580,15 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5804,13 +5613,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5834,19 +5643,19 @@
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>307</v>
@@ -5871,7 +5680,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -5946,10 +5755,10 @@
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
@@ -5958,21 +5767,21 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5983,10 +5792,10 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -5995,13 +5804,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6052,1964 +5861,38 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB54" s="2"/>
-      <c r="AC54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X55" s="2"/>
-      <c r="Y55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN58" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN58">
+  <autoFilter ref="A1:AN41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8019,7 +5902,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -367,7 +367,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>

--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -367,7 +367,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>

--- a/output/EventSummary/condition-summary-1.xlsx
+++ b/output/EventSummary/condition-summary-1.xlsx
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or (abatement as boolean).not()  or clinicalStatus='resolved' or clinicalStatus='remission' or clinicalStatus='inactive'}con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error {verificationStatus='entered-in-error' or clinicalStatus.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or (abatement as boolean).not()  or clinicalStatus='resolved' or clinicalStatus='remission' or clinicalStatus='inactive'}con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error {verificationStatus='entered-in-error' or clinicalStatus.exists()}inv-dh-cond-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-cond-03:If present, a recorder shall at least have a reference, an identifier or a display {recorder.exists() implies recorder.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>&lt; 243796009 |Situation with explicit context|:
@@ -356,10 +356,10 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the condition</t>
-  </si>
-  <si>
-    <t>Reference to an individual who recorded the condition and takes responsibility for its content.</t>
+    <t>Who recorded the record</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -367,7 +367,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {all($this.valueReference.reference.exists() implies ($this.valueReference.reference.resolve().where($this is Practitioner).conformsTo('http://hl7.org/fhir/StructureDefinition/Practitioner') or $this.valueReference.reference.resolve().where($this is Patient).conformsTo('http://hl7.org/fhir/StructureDefinition/Patient') or $this.valueReference.reference.resolve().where($this is RelatedPerson).conformsTo('http://hl7.org/fhir/StructureDefinition/RelatedPerson')))}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
